--- a/data/trans_camb/P6902-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P6902-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>56,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>43,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>54,05</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,21; 52,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,78; 87,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 57,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,97; 74,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 85,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,44; 54,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 50,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,87; 78,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 47,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>448,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>854,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>321,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>218,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>418,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>182,17%</t>
         </is>
       </c>
     </row>
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,5; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,02; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,58; 1325,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,8; 1869,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,97; 1277,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 29,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 33,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,82; 45,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 36,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,0; 21,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,3; 41,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 29,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; 25,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,49; 41,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,34%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,47; 183,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,66; 249,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,72; 321,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,53; 126,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,82; 69,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,18; 150,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 145,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,97; 114,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,14; 198,27</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,73</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 20,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 14,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 24,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 29,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,99; 25,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 33,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 19,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,14; 14,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,11; 25,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,56%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,65; 54,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,95; 38,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 63,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,75; 87,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,25; 72,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 100,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 50,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,18; 37,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,44; 64,69</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 24,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,78; 3,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,78; 40,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,53; 8,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,01; 18,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,67; 16,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 16,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,93; 6,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 27,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,25%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,97%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 70,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,52; 9,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,22; 112,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,07; 17,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,14; 34,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,71; 27,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,32; 36,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,2; 14,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 63,94</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,31; 4,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 13,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,93; 33,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 27,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 32,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 32,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,77; 9,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 16,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,88; 28,17</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,18%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,47; 8,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,52; 27,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,69; 66,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 63,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 75,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 75,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; 18,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 33,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,93; 57,23</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,76</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 10,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 7,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 25,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 15,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 18,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 22,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 10,73</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 10,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,95; 23,31</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,67%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 25,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 17,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,63; 64,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 34,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 40,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,13; 49,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 25,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 23,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,33; 54,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6902-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,29</t>
+          <t>22,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,17</t>
+          <t>24,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,44</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,67</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,71</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,18</t>
+          <t>16,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,05</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,53</t>
+          <t>25,22</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 52,63</t>
+          <t>1,87; 30,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,78; 87,04</t>
+          <t>4,06; 37,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 57,63</t>
+          <t>9,16; 40,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 74,58</t>
+          <t>-10,69; 37,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 85,93</t>
+          <t>-21,61; 27,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 54,54</t>
+          <t>-4,16; 37,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 50,22</t>
+          <t>5,24; 29,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,87; 78,67</t>
+          <t>3,02; 30,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 47,11</t>
+          <t>12,89; 37,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>448,47%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>854,97%</t>
+          <t>114,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>321,58%</t>
+          <t>127,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>152,31%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>218,2%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>418,51%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>182,17%</t>
+          <t>98,14%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,93; 245,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,56; 292,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,61; 308,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,0; 133,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,5; —</t>
+          <t>-41,14; 96,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,02; —</t>
+          <t>-8,02; 136,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 1325,82</t>
+          <t>14,39; 153,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,8; 1869,87</t>
+          <t>8,1; 162,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 1277,62</t>
+          <t>38,96; 206,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,03</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,51</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,08</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,59</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,06</t>
+          <t>14,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 29,34</t>
+          <t>-6,44; 20,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 33,32</t>
+          <t>-14,13; 14,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,82; 45,32</t>
+          <t>-2,28; 23,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 36,12</t>
+          <t>-7,91; 29,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 21,44</t>
+          <t>-11,99; 25,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 41,1</t>
+          <t>1,59; 33,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 29,35</t>
+          <t>-1,45; 19,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 25,31</t>
+          <t>-8,14; 14,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,49; 41,42</t>
+          <t>5,33; 24,56</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>120,51%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,64%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>33,04%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 183,71</t>
+          <t>-13,65; 54,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 249,8</t>
+          <t>-28,95; 38,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,72; 321,93</t>
+          <t>-4,83; 62,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 126,93</t>
+          <t>-13,75; 87,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,82; 69,43</t>
+          <t>-21,25; 72,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 150,02</t>
+          <t>2,52; 100,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 145,54</t>
+          <t>-3,66; 50,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 114,78</t>
+          <t>-16,18; 37,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,14; 198,27</t>
+          <t>11,15; 63,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>23,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>-11,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>-18,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,23</t>
+          <t>4,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 20,19</t>
+          <t>-6,09; 24,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 14,03</t>
+          <t>-22,78; 3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 24,07</t>
+          <t>5,46; 40,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 29,87</t>
+          <t>-31,53; 8,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 25,56</t>
+          <t>-19,01; 18,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 33,94</t>
+          <t>-52,8; 11,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 19,74</t>
+          <t>-9,51; 16,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 14,47</t>
+          <t>-16,93; 6,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 25,01</t>
+          <t>-30,23; 23,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-22,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>54,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>-28,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>-9,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>8,87%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 54,88</t>
+          <t>-12,43; 70,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 38,8</t>
+          <t>-45,52; 9,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 63,69</t>
+          <t>11,07; 112,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 87,41</t>
+          <t>-43,07; 17,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 72,17</t>
+          <t>-25,14; 34,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 100,66</t>
+          <t>-72,34; 18,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 50,93</t>
+          <t>-17,32; 36,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 37,01</t>
+          <t>-30,2; 14,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 64,69</t>
+          <t>-51,58; 49,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,78</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,66</t>
+          <t>23,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,18</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,88</t>
+          <t>20,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 24,37</t>
+          <t>-23,31; 4,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 3,36</t>
+          <t>-13,2; 13,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 40,41</t>
+          <t>11,6; 33,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 8,89</t>
+          <t>-4,08; 27,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 18,0</t>
+          <t>-0,86; 32,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 16,29</t>
+          <t>3,06; 32,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 16,31</t>
+          <t>-11,77; 9,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 6,04</t>
+          <t>-3,12; 16,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 27,8</t>
+          <t>10,07; 28,13</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,87%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>36,92%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 70,18</t>
+          <t>-36,47; 8,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 9,65</t>
+          <t>-21,52; 27,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,22; 112,57</t>
+          <t>18,38; 66,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 17,58</t>
+          <t>-6,92; 63,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 34,12</t>
+          <t>0,44; 75,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 27,98</t>
+          <t>5,48; 78,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 36,3</t>
+          <t>-19,26; 18,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 14,09</t>
+          <t>-5,04; 33,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 63,94</t>
+          <t>16,96; 57,33</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,26</t>
+          <t>18,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,45</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>15,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 4,76</t>
+          <t>-3,76; 10,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 13,98</t>
+          <t>-7,6; 7,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,93; 33,67</t>
+          <t>10,22; 25,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 27,53</t>
+          <t>-4,02; 15,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 32,02</t>
+          <t>-0,47; 18,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 32,12</t>
+          <t>-8,86; 19,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 9,58</t>
+          <t>-0,27; 10,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,79</t>
+          <t>-2,02; 10,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,88; 28,17</t>
+          <t>3,88; 21,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,5%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 8,65</t>
+          <t>-8,31; 25,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 27,14</t>
+          <t>-16,43; 17,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,69; 66,08</t>
+          <t>22,17; 62,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 63,83</t>
+          <t>-7,05; 34,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,44; 75,48</t>
+          <t>-0,81; 40,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,78; 75,86</t>
+          <t>-16,09; 40,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 18,47</t>
+          <t>-0,8; 25,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 33,52</t>
+          <t>-4,13; 23,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14,93; 57,23</t>
+          <t>8,49; 48,43</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>18,97</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>9,24</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>13,64</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,19</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>17,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 10,4</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 7,24</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>11,01; 25,77</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 15,87</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 18,05</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 22,61</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 10,73</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 10,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>11,95; 23,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>43,7%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>12,07%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>17,99%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>26,56%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>11,3%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>38,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; 25,86</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-16,43; 17,69</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>23,63; 64,46</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 34,04</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 40,37</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 49,07</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 25,35</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 23,7</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>24,33; 54,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P6902-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 30,87</t>
+          <t>2,86; 30,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 37,63</t>
+          <t>5,79; 39,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 40,68</t>
+          <t>7,87; 39,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 37,37</t>
+          <t>-11,54; 36,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 27,45</t>
+          <t>-19,58; 28,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 37,05</t>
+          <t>-4,77; 37,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 29,75</t>
+          <t>3,57; 27,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 30,92</t>
+          <t>2,2; 31,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 37,74</t>
+          <t>12,36; 36,83</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 245,99</t>
+          <t>9,37; 252,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,56; 292,46</t>
+          <t>19,48; 307,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,61; 308,93</t>
+          <t>27,85; 299,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 133,01</t>
+          <t>-23,34; 125,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 96,13</t>
+          <t>-37,65; 96,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 136,3</t>
+          <t>-6,31; 138,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 153,69</t>
+          <t>10,52; 133,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 162,07</t>
+          <t>5,58; 157,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,96; 206,17</t>
+          <t>39,69; 201,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 20,19</t>
+          <t>-6,89; 20,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 14,03</t>
+          <t>-13,55; 13,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 23,59</t>
+          <t>-3,86; 23,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 29,87</t>
+          <t>-7,67; 29,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 25,56</t>
+          <t>-12,3; 26,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 33,86</t>
+          <t>1,13; 32,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 19,74</t>
+          <t>-1,91; 19,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 14,47</t>
+          <t>-8,66; 12,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 24,56</t>
+          <t>4,37; 23,89</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 54,88</t>
+          <t>-13,58; 57,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 38,8</t>
+          <t>-28,48; 36,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 62,49</t>
+          <t>-7,45; 61,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 87,41</t>
+          <t>-13,31; 87,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 72,17</t>
+          <t>-22,31; 75,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 100,1</t>
+          <t>3,14; 101,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 50,93</t>
+          <t>-3,96; 51,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 37,01</t>
+          <t>-17,95; 32,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 63,22</t>
+          <t>8,94; 61,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 24,37</t>
+          <t>-8,85; 23,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 3,36</t>
+          <t>-23,23; 4,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 40,42</t>
+          <t>6,28; 37,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 8,89</t>
+          <t>-29,03; 10,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 18,0</t>
+          <t>-19,1; 21,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 11,41</t>
+          <t>-56,07; 12,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 16,31</t>
+          <t>-9,17; 15,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 6,04</t>
+          <t>-16,68; 5,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 23,67</t>
+          <t>-25,13; 24,16</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 70,18</t>
+          <t>-17,9; 64,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 9,65</t>
+          <t>-45,84; 14,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,07; 112,63</t>
+          <t>12,37; 109,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 17,58</t>
+          <t>-41,46; 17,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 34,12</t>
+          <t>-25,18; 39,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,34; 18,92</t>
+          <t>-73,6; 19,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 36,3</t>
+          <t>-16,75; 36,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 14,09</t>
+          <t>-28,9; 14,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 49,49</t>
+          <t>-45,45; 51,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 4,76</t>
+          <t>-23,01; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 13,98</t>
+          <t>-12,33; 14,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,6; 33,62</t>
+          <t>11,27; 33,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 27,53</t>
+          <t>-6,65; 25,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 32,02</t>
+          <t>1,44; 32,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 32,14</t>
+          <t>2,9; 32,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 9,58</t>
+          <t>-11,67; 10,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,79</t>
+          <t>-3,56; 16,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,07; 28,13</t>
+          <t>9,88; 28,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 8,65</t>
+          <t>-36,94; 9,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 27,14</t>
+          <t>-19,67; 27,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,38; 66,07</t>
+          <t>17,69; 66,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 63,83</t>
+          <t>-9,16; 60,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 75,48</t>
+          <t>2,67; 74,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,48; 78,17</t>
+          <t>6,12; 77,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 18,47</t>
+          <t>-20,39; 19,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 33,52</t>
+          <t>-5,93; 33,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,96; 57,33</t>
+          <t>17,27; 56,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,4</t>
+          <t>-3,32; 10,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 7,24</t>
+          <t>-7,17; 6,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,22; 25,32</t>
+          <t>11,83; 25,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 15,87</t>
+          <t>-3,15; 15,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,05</t>
+          <t>-1,21; 18,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 19,0</t>
+          <t>-8,95; 19,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,73</t>
+          <t>-0,68; 10,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,16</t>
+          <t>-1,91; 9,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,88; 21,24</t>
+          <t>4,85; 21,39</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 25,86</t>
+          <t>-7,2; 25,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 17,69</t>
+          <t>-15,62; 16,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>22,17; 62,92</t>
+          <t>25,51; 64,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 34,04</t>
+          <t>-5,97; 33,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 40,37</t>
+          <t>-2,09; 39,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 40,18</t>
+          <t>-15,4; 40,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 25,35</t>
+          <t>-1,37; 25,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 23,7</t>
+          <t>-3,76; 22,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,49; 48,43</t>
+          <t>11,16; 49,41</t>
         </is>
       </c>
     </row>
